--- a/Vaccination_Centers_Table.xlsx
+++ b/Vaccination_Centers_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arcane Archives\UP MS Math\SEM2\Math281\COVID RESEARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EFC399-54C3-4E90-B6F1-B8A704CEDC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892408FC-2463-4AD5-9856-9827F3F663E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2322" yWindow="1704" windowWidth="14400" windowHeight="7824" xr2:uid="{01E1D033-07F7-4E6F-9A16-70FCEE8678FC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{01E1D033-07F7-4E6F-9A16-70FCEE8678FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>Buhay Na Sapa</t>
   </si>
@@ -348,10 +348,13 @@
     <t>Batangas State University - San Juan Campus</t>
   </si>
   <si>
+    <t>San Juan Nepomuceno Church</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>longtitude</t>
+    <t>longitude</t>
   </si>
   <si>
     <t>Barangay</t>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4C3278-11BC-4912-9B64-B34F4CDBC1CB}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -755,16 +758,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1661,6 +1664,20 @@
       </c>
       <c r="D65" s="3" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
+        <v>13.8280654994402</v>
+      </c>
+      <c r="B66" s="1">
+        <v>121.394678081324</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
